--- a/file/第5组+高校科研管理系统-周报-20200412.xlsx
+++ b/file/第5组+高校科研管理系统-周报-20200412.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F03B41-5FE7-4C50-9847-0F1AC6D06B9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E77E9D7-5A23-4AF2-860D-5FF6A41BC43E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="填写说明" sheetId="5" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="97">
   <si>
     <t>项目周报</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -341,10 +341,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>20200430</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>安全设计，实现不同用户登录显示不同页面以及后台相关数据加密，debug</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -353,10 +349,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>20200520</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>实现后台用户管理管理系统</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -419,6 +411,26 @@
   <si>
     <t>韩勇刘海锋李昊源郑园</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘海锋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩勇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李昊源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vue+springboot工程文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2165,30 +2177,30 @@
     </row>
     <row r="3" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="118" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C3" s="114"/>
       <c r="D3" s="114"/>
       <c r="E3" s="119" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F3" s="119"/>
       <c r="G3" s="114" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H3" s="114"/>
       <c r="I3" s="115"/>
     </row>
     <row r="4" spans="2:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="116" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" s="117"/>
       <c r="D4" s="117"/>
       <c r="E4" s="117"/>
       <c r="F4" s="117"/>
       <c r="G4" s="117" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H4" s="117"/>
       <c r="I4" s="123"/>
@@ -2240,15 +2252,15 @@
         <v>1</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
       <c r="G7" s="24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H7" s="98" t="s">
         <v>72</v>
@@ -2494,8 +2506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2557,10 +2569,10 @@
     </row>
     <row r="5" spans="2:8" ht="24" x14ac:dyDescent="0.25">
       <c r="B5" s="130" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C5" s="128" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D5" s="77" t="s">
         <v>50</v>
@@ -2569,10 +2581,10 @@
         <v>50</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H5" s="38"/>
     </row>
@@ -2612,18 +2624,18 @@
       <c r="G9" s="6"/>
       <c r="H9" s="33"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" ht="24" x14ac:dyDescent="0.25">
       <c r="B10" s="131"/>
       <c r="C10" s="129" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D10" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="77" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="6"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="G10" s="6"/>
       <c r="H10" s="33"/>
     </row>
@@ -2645,7 +2657,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="33"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" ht="24" x14ac:dyDescent="0.25">
       <c r="B13" s="131"/>
       <c r="C13" s="129" t="s">
         <v>51</v>
@@ -2653,10 +2665,10 @@
       <c r="D13" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="6"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="G13" s="6"/>
       <c r="H13" s="33"/>
     </row>
@@ -2672,15 +2684,15 @@
     <row r="15" spans="2:8" ht="48.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="132"/>
       <c r="C15" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" s="77" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" s="20"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="20" t="s">
+        <v>96</v>
+      </c>
       <c r="G15" s="20"/>
       <c r="H15" s="34"/>
     </row>
@@ -2712,8 +2724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -2807,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="60" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D5" s="55">
         <v>20200330</v>
@@ -2816,7 +2828,7 @@
         <v>20200405</v>
       </c>
       <c r="F5" s="61" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G5" s="54" t="s">
         <v>58</v>
@@ -2824,7 +2836,7 @@
       <c r="H5" s="50"/>
       <c r="I5" s="50"/>
       <c r="J5" s="57" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K5" s="62" t="s">
         <v>57</v>
@@ -2887,7 +2899,9 @@
       </c>
       <c r="H7" s="56"/>
       <c r="I7" s="56"/>
-      <c r="J7" s="57"/>
+      <c r="J7" s="57" t="s">
+        <v>92</v>
+      </c>
       <c r="K7" s="62" t="s">
         <v>57</v>
       </c>
@@ -2915,7 +2929,9 @@
       </c>
       <c r="H8" s="56"/>
       <c r="I8" s="56"/>
-      <c r="J8" s="57"/>
+      <c r="J8" s="57" t="s">
+        <v>93</v>
+      </c>
       <c r="K8" s="62" t="s">
         <v>57</v>
       </c>
@@ -2943,7 +2959,9 @@
       </c>
       <c r="H9" s="56"/>
       <c r="I9" s="56"/>
-      <c r="J9" s="57"/>
+      <c r="J9" s="57" t="s">
+        <v>95</v>
+      </c>
       <c r="K9" s="62" t="s">
         <v>57</v>
       </c>
@@ -2971,7 +2989,9 @@
       </c>
       <c r="H10" s="56"/>
       <c r="I10" s="56"/>
-      <c r="J10" s="57"/>
+      <c r="J10" s="57" t="s">
+        <v>94</v>
+      </c>
       <c r="K10" s="62" t="s">
         <v>57</v>
       </c>
@@ -2999,7 +3019,9 @@
       </c>
       <c r="H11" s="56"/>
       <c r="I11" s="56"/>
-      <c r="J11" s="57"/>
+      <c r="J11" s="57" t="s">
+        <v>93</v>
+      </c>
       <c r="K11" s="62" t="s">
         <v>57</v>
       </c>
@@ -3027,7 +3049,9 @@
       </c>
       <c r="H12" s="56"/>
       <c r="I12" s="56"/>
-      <c r="J12" s="57"/>
+      <c r="J12" s="57" t="s">
+        <v>91</v>
+      </c>
       <c r="K12" s="62" t="s">
         <v>57</v>
       </c>

--- a/file/第5组+高校科研管理系统-周报-20200412.xlsx
+++ b/file/第5组+高校科研管理系统-周报-20200412.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E77E9D7-5A23-4AF2-860D-5FF6A41BC43E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137C874F-3E89-46A0-B921-6DA86ACB8338}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="填写说明" sheetId="5" r:id="rId1"/>
@@ -1499,6 +1499,36 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1537,36 +1567,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2164,62 +2164,62 @@
   <sheetData>
     <row r="1" spans="2:9" ht="11.4" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:9" s="1" customFormat="1" ht="22.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="122"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="109"/>
     </row>
     <row r="3" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="118" t="s">
+      <c r="B3" s="105" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="119" t="s">
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="106" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="119"/>
-      <c r="G3" s="114" t="s">
+      <c r="F3" s="106"/>
+      <c r="G3" s="101" t="s">
         <v>79</v>
       </c>
-      <c r="H3" s="114"/>
-      <c r="I3" s="115"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="102"/>
     </row>
     <row r="4" spans="2:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="116" t="s">
+      <c r="B4" s="103" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117" t="s">
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104" t="s">
         <v>82</v>
       </c>
-      <c r="H4" s="117"/>
-      <c r="I4" s="123"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="110"/>
     </row>
     <row r="5" spans="2:9" ht="12" x14ac:dyDescent="0.15">
       <c r="B5" s="39" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="40"/>
-      <c r="D5" s="106" t="s">
+      <c r="D5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106" t="s">
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="106"/>
-      <c r="I5" s="107"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="117"/>
     </row>
     <row r="6" spans="2:9" ht="24.6" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="41" t="s">
@@ -2391,16 +2391,16 @@
       <c r="B18" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="101" t="s">
+      <c r="C18" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="102"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="101" t="s">
+      <c r="D18" s="112"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="103"/>
+      <c r="H18" s="113"/>
       <c r="I18" s="32" t="s">
         <v>12</v>
       </c>
@@ -2409,10 +2409,10 @@
       <c r="B19" s="26">
         <v>1</v>
       </c>
-      <c r="C19" s="111"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="113"/>
+      <c r="C19" s="121"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="123"/>
       <c r="G19" s="81"/>
       <c r="H19" s="80"/>
       <c r="I19" s="27"/>
@@ -2457,12 +2457,12 @@
       <c r="B23" s="17">
         <v>5</v>
       </c>
-      <c r="C23" s="108"/>
-      <c r="D23" s="109"/>
-      <c r="E23" s="109"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="105"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="115"/>
       <c r="I23" s="18"/>
     </row>
     <row r="24" spans="2:9" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
@@ -2477,12 +2477,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="G4:I4"/>
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G23:H23"/>
@@ -2490,6 +2484,12 @@
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="G4:I4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2506,7 +2506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -2724,8 +2724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:M40"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -2960,7 +2960,7 @@
       <c r="H9" s="56"/>
       <c r="I9" s="56"/>
       <c r="J9" s="57" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="K9" s="62" t="s">
         <v>57</v>
@@ -3020,7 +3020,7 @@
       <c r="H11" s="56"/>
       <c r="I11" s="56"/>
       <c r="J11" s="57" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K11" s="62" t="s">
         <v>57</v>
